--- a/common/Dialog.xlsx
+++ b/common/Dialog.xlsx
@@ -297,6 +297,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">weather_type </t>
     </r>
     <r>
@@ -374,10 +381,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -408,21 +415,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -436,9 +436,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -452,13 +519,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -466,57 +535,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -528,30 +551,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -592,13 +599,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -610,163 +767,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -811,8 +818,23 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -835,38 +857,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -888,15 +880,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -905,6 +888,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -913,10 +920,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -925,133 +932,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1416,7 +1423,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/common/Dialog.xlsx
+++ b/common/Dialog.xlsx
@@ -381,10 +381,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -412,20 +412,6 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -437,6 +423,42 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -444,36 +466,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -482,30 +474,69 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -519,45 +550,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="微软雅黑"/>
@@ -599,181 +599,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -824,17 +824,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -856,9 +856,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -880,11 +882,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -898,17 +898,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -920,10 +920,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -932,133 +932,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1423,7 +1423,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/common/Dialog.xlsx
+++ b/common/Dialog.xlsx
@@ -40,6 +40,12 @@
 0=无表情</t>
   </si>
   <si>
+    <t>景别
+1=远景
+2=中景
+3=近景</t>
+  </si>
+  <si>
     <t>对话内容</t>
   </si>
   <si>
@@ -233,23 +239,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>text</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve">camera_position </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +250,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>string</t>
+      <t>int</t>
     </r>
   </si>
   <si>
@@ -272,7 +262,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>context_id</t>
+      <t>text</t>
     </r>
     <r>
       <rPr>
@@ -292,7 +282,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>int</t>
+      <t>string</t>
     </r>
   </si>
   <si>
@@ -304,7 +294,16 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">weather_type </t>
+      <t>context_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -319,15 +318,35 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">weather_type </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int</t>
+    </r>
+  </si>
+  <si>
     <t>天边一道惊雷闪过，将枕边的梦生生折了一截，矍然惊醒。</t>
   </si>
   <si>
     <t>外面不知何时下起了雨，淅淅沥沥，云浓雨凉薄，连着心都蒙上了几分沉重。</t>
   </si>
   <si>
-    <t>绿瑶</t>
-  </si>
-  <si>
     <t>（微微蹙眉）九娘，怎又赤足站在窗前，如今刚入春，莫要着凉才是。</t>
   </si>
   <si>
@@ -338,9 +357,6 @@
   </si>
   <si>
     <t>绿瑶从柜中找出罗袜正要套上，掌心托着我的脚踝，触及的冰冷，又一次不住心疼地嗔怪道。</t>
-  </si>
-  <si>
-    <t>我</t>
   </si>
   <si>
     <t>（轻笑）我知晓，就算爹不亲娘不爱，还有你念着，忧着，担着我，我怎敢不好？</t>
@@ -382,9 +398,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -412,6 +428,127 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -422,20 +559,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -445,114 +568,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -599,13 +615,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,49 +729,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -677,103 +771,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -818,8 +834,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -839,6 +855,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -850,17 +901,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -883,32 +923,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -920,10 +936,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -932,7 +948,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -941,124 +957,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1420,10 +1436,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1434,13 +1450,14 @@
     <col min="4" max="4" width="11.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="83.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="7" max="7" width="17.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="83.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="90.75" spans="1:9">
+    <row r="1" ht="90.75" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1465,40 +1482,46 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" ht="33.75" spans="1:9">
+      <c r="J1" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" ht="47.25" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="I2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1517,11 +1540,14 @@
       <c r="F3" s="1">
         <v>0</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1540,19 +1566,22 @@
       <c r="F4" s="1">
         <v>0</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>20</v>
+      <c r="C5" s="1">
+        <v>1</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -1563,11 +1592,14 @@
       <c r="F5" s="1">
         <v>0</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1586,19 +1618,22 @@
       <c r="F6" s="1">
         <v>0</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
+      <c r="C7" s="1">
+        <v>1</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -1609,11 +1644,14 @@
       <c r="F7" s="1">
         <v>0</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="1">
+        <v>3</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1632,19 +1670,22 @@
       <c r="F8" s="1">
         <v>0</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" ht="17.25" spans="1:7">
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" ht="17.25" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>25</v>
+      <c r="C9" s="1">
+        <v>0</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -1655,19 +1696,22 @@
       <c r="F9" s="1">
         <v>0</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="1">
+        <v>2</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" ht="17.25" spans="1:7">
+    <row r="10" ht="17.25" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>20</v>
+      <c r="C10" s="1">
+        <v>1</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -1678,11 +1722,14 @@
       <c r="F10" s="1">
         <v>0</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="1">
+        <v>2</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1701,19 +1748,22 @@
       <c r="F11" s="1">
         <v>0</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="1">
+        <v>2</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>2</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>25</v>
+      <c r="C12" s="1">
+        <v>0</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -1724,19 +1774,22 @@
       <c r="F12" s="1">
         <v>0</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="1">
+        <v>2</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>3</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>20</v>
+      <c r="C13" s="1">
+        <v>1</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -1747,19 +1800,22 @@
       <c r="F13" s="1">
         <v>0</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="1">
+        <v>2</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>2</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>25</v>
+      <c r="C14" s="1">
+        <v>0</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -1770,11 +1826,14 @@
       <c r="F14" s="1">
         <v>0</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="1">
+        <v>2</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" ht="33" spans="1:7">
+    <row r="15" ht="33" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1793,19 +1852,22 @@
       <c r="F15" s="1">
         <v>0</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="1">
+        <v>2</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>2</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>25</v>
+      <c r="C16" s="1">
+        <v>0</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -1816,19 +1878,22 @@
       <c r="F16" s="1">
         <v>0</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="1">
+        <v>2</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>3</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>20</v>
+      <c r="C17" s="1">
+        <v>1</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
@@ -1839,19 +1904,22 @@
       <c r="F17" s="1">
         <v>0</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="1">
+        <v>2</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>3</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>20</v>
+      <c r="C18" s="1">
+        <v>1</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
@@ -1862,19 +1930,22 @@
       <c r="F18" s="1">
         <v>0</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="1">
+        <v>2</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" ht="33" spans="1:7">
+    <row r="19" ht="33" spans="1:8">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>2</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>25</v>
+      <c r="C19" s="1">
+        <v>0</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -1885,7 +1956,10 @@
       <c r="F19" s="1">
         <v>0</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="1">
+        <v>2</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>36</v>
       </c>
     </row>

--- a/common/Dialog.xlsx
+++ b/common/Dialog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
   <si>
     <t>序号</t>
   </si>
@@ -36,7 +36,7 @@
     <t>人物立绘id</t>
   </si>
   <si>
-    <t>表情类型
+    <t>表情id
 0=无表情</t>
   </si>
   <si>
@@ -216,14 +216,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">expression_type </t>
+      <t xml:space="preserve">expression_id </t>
     </r>
     <r>
       <rPr>
@@ -239,6 +232,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">camera_position </t>
     </r>
     <r>
@@ -390,6 +390,21 @@
   </si>
   <si>
     <t>（探手抹去绿瑶眼角的泪珠，嘴上的笑意不减，安抚道）好了，为那些个腌臜的东西掉泪多不值当，十二郎差不多要醒了，你去侍候他罢，这月钱我亲自去讨便是。</t>
+  </si>
+  <si>
+    <t>测试选项1</t>
+  </si>
+  <si>
+    <t>测试选项2</t>
+  </si>
+  <si>
+    <t>选项1对白</t>
+  </si>
+  <si>
+    <t>路人甲</t>
+  </si>
+  <si>
+    <t>选项2对白</t>
   </si>
 </sst>
 </file>
@@ -397,10 +412,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -430,6 +445,51 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -444,8 +504,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -459,31 +520,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -498,8 +559,16 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -514,61 +583,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -615,181 +630,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -834,8 +849,34 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -864,13 +905,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -890,41 +935,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -936,10 +951,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -948,133 +963,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1439,7 +1454,7 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1449,7 +1464,7 @@
     <col min="3" max="3" width="9" style="1"/>
     <col min="4" max="4" width="11.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="17.375" style="1" customWidth="1"/>
     <col min="8" max="8" width="83.375" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.125" style="1" customWidth="1"/>
@@ -1489,7 +1504,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" ht="47.25" spans="1:10">
+    <row r="2" ht="33.75" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -1521,7 +1536,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1546,8 +1561,14 @@
       <c r="H3" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="1">
+        <v>6</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1572,8 +1593,14 @@
       <c r="H4" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="1">
+        <v>6</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1598,8 +1625,14 @@
       <c r="H5" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="1">
+        <v>6</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1624,8 +1657,14 @@
       <c r="H6" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="1">
+        <v>6</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1650,8 +1689,14 @@
       <c r="H7" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="1">
+        <v>6</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1676,8 +1721,14 @@
       <c r="H8" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" ht="17.25" spans="1:8">
+      <c r="I8" s="1">
+        <v>6</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" ht="17.25" spans="1:10">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1702,8 +1753,14 @@
       <c r="H9" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" ht="17.25" spans="1:8">
+      <c r="I9" s="1">
+        <v>6</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="17.25" spans="1:10">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1728,8 +1785,14 @@
       <c r="H10" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="1">
+        <v>6</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1754,8 +1817,14 @@
       <c r="H11" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="1">
+        <v>6</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1780,8 +1849,14 @@
       <c r="H12" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" s="1">
+        <v>6</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1806,8 +1881,14 @@
       <c r="H13" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="1">
+        <v>6</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1832,8 +1913,14 @@
       <c r="H14" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="15" ht="33" spans="1:8">
+      <c r="I14" s="1">
+        <v>6</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="33" spans="1:10">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1858,8 +1945,14 @@
       <c r="H15" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" s="1">
+        <v>6</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1884,8 +1977,14 @@
       <c r="H16" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" s="1">
+        <v>6</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1910,8 +2009,14 @@
       <c r="H17" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" s="1">
+        <v>6</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1936,8 +2041,14 @@
       <c r="H18" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" ht="33" spans="1:8">
+      <c r="I18" s="1">
+        <v>6</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" ht="33" spans="1:10">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1961,6 +2072,145 @@
       </c>
       <c r="H19" s="4" t="s">
         <v>36</v>
+      </c>
+      <c r="I19" s="1">
+        <v>6</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" s="1">
+        <v>6</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>2</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="1">
+        <v>6</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>2</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="1">
+        <v>6</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <v>4</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="1">
+        <v>3</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>2</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="1">
+        <v>6</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1">
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="2:4">

--- a/common/Dialog.xlsx
+++ b/common/Dialog.xlsx
@@ -216,6 +216,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">expression_id </t>
     </r>
     <r>
@@ -412,10 +419,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -443,6 +450,120 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -453,73 +574,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -529,61 +583,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -636,175 +643,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -846,15 +853,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -872,11 +870,48 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -905,41 +940,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -951,10 +958,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -963,133 +970,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1454,7 +1461,7 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2208,11 +2215,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-    </row>
     <row r="26" spans="2:4">
       <c r="B26" s="6"/>
       <c r="D26" s="4"/>

--- a/common/Dialog.xlsx
+++ b/common/Dialog.xlsx
@@ -419,10 +419,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -452,8 +452,98 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -467,52 +557,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -526,76 +596,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="微软雅黑"/>
@@ -637,25 +637,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -667,151 +763,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -853,17 +853,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -873,30 +869,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -931,6 +903,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -939,17 +950,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -958,10 +958,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -970,133 +970,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1461,7 +1461,7 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/common/Dialog.xlsx
+++ b/common/Dialog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
   <si>
     <t>序号</t>
   </si>
@@ -348,7 +348,7 @@
     </r>
   </si>
   <si>
-    <t>天边一道惊雷闪过，将枕边的梦生生折了一截，矍然惊醒。</t>
+    <t>天边一道惊雷闪过，将枕边的梦生生折了一截，我矍然惊醒，睫羽微湿，依稀是梦中泪痕。</t>
   </si>
   <si>
     <t>外面不知何时下起了雨，淅淅沥沥，云浓雨凉薄，连着心都蒙上了几分沉重。</t>
@@ -357,7 +357,7 @@
     <t>（微微蹙眉）九娘，怎又赤足站在窗前，如今刚入春，莫要着凉才是。</t>
   </si>
   <si>
-    <t>推门而入的绿瑶，见状急忙放下手中茶盘，将我搀上了床，转身去关窗。</t>
+    <t>推门而入的绿瑶，见状急忙放下手中茶盘，将我搀上了床，转身关了窗。</t>
   </si>
   <si>
     <t>（轻声惊呼）呀，这脚都冻成这般，九娘当多多爱惜自己才是。</t>
@@ -369,34 +369,37 @@
     <t>（轻笑）我知晓，就算爹不亲娘不爱，还有你念着，忧着，担着我，我怎敢不好？</t>
   </si>
   <si>
-    <t>还有十二郎不是？</t>
-  </si>
-  <si>
-    <t>绿瑶被我话逗乐，却不想因此牵动了嘴角的伤口，暗暗吃痛地倒吸口凉气。</t>
-  </si>
-  <si>
-    <t>（见她微有异样，急忙抬起她的下颌，却见嘴角一片淤青）怎弄得如此模样？</t>
-  </si>
-  <si>
-    <t>（急忙扭头避开探究的目光，佯装忙碌）去年做的袄子，今年就露出手腕子来，九娘长得这般快咯。</t>
-  </si>
-  <si>
-    <t>（略略沉吟片刻，便知晓是缘由）可是领月例时，出了岔子？</t>
-  </si>
-  <si>
-    <t>见绿瑶径直沉默不语，我便已猜中一二，内宅深院最是讲究嫡庶分位，我生母本就是位份低微的姨娘，生了我和十二郎不久，又出了那档子事，自然不受待见。</t>
-  </si>
-  <si>
-    <t>这世上只见拜高踩低的，却不见雪中送炭，这钱妈妈自然会怠慢我们，也不是什么大事。</t>
-  </si>
-  <si>
-    <t>（不满）当初老太爷在时，哪时少过我们一点月钱，老太爷不过去世半年，就……</t>
+    <t>（穿戴后，她拎着我到镜前梳妆，这才笑道）还有十二郎不是？</t>
+  </si>
+  <si>
+    <t>只是话刚说完，却因牵动了嘴角的伤口，暗暗吃痛地倒吸口凉气。</t>
+  </si>
+  <si>
+    <t>（见她微有异样，我急忙侧首，瞧见了她嘴角的淤青，担忧道）怎么弄的？</t>
+  </si>
+  <si>
+    <t>（避开探究的目光，佯装梳妆）九娘的发尾有些枯了，我去拿把剪子来。（指尖触过发丝，掩过不经意在眉间笼起的轻愁……）</t>
+  </si>
+  <si>
+    <t>（我急忙抓住她手腕，略沉吟片刻，便知晓什么缘由）可是领月例时，出了岔子？</t>
+  </si>
+  <si>
+    <t>见绿瑶沉默不答，似乎给予了答案。我生母虽是长房嫡妻，可偏又出了那档子事，弱女稚童自然不受待见。</t>
+  </si>
+  <si>
+    <t>这世上只见拜高踩低的，却不见雪中送炭，这钱嬷嬷自然会怠慢我们，也不是什么大事。</t>
+  </si>
+  <si>
+    <t>（不满）当初老太爷在时，哪时少过我们一点月钱，老太爷这才走不过半年，就……</t>
   </si>
   <si>
     <t>（话说了一半，却是眼眶微红，语气哽咽，后半句却是再也说不下了）</t>
   </si>
   <si>
-    <t>（探手抹去绿瑶眼角的泪珠，嘴上的笑意不减，安抚道）好了，为那些个腌臜的东西掉泪多不值当，十二郎差不多要醒了，你去侍候他罢，这月钱我亲自去讨便是。</t>
+    <t>（探手抹去绿瑶眼角的泪珠，嘴上的笑意不减，安抚道）好了，为那些个腌臜的东西掉泪多不值当。</t>
+  </si>
+  <si>
+    <t>十二郎差不多要醒了，你去侍候他罢，这月钱我亲自去讨便是。</t>
   </si>
   <si>
     <t>测试选项1</t>
@@ -420,9 +423,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -448,8 +451,30 @@
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
+      <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -460,6 +485,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -468,6 +530,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -476,50 +584,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -529,68 +593,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -637,13 +640,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -655,163 +808,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -853,41 +856,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -918,6 +886,59 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -932,24 +953,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -958,10 +961,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -970,137 +973,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1113,14 +1116,20 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1458,10 +1467,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1507,7 +1516,7 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1539,7 +1548,7 @@
       <c r="I2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1547,7 +1556,7 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="4">
         <v>0</v>
       </c>
       <c r="C3" s="1">
@@ -1565,7 +1574,7 @@
       <c r="G3" s="1">
         <v>1</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I3" s="1">
@@ -1579,7 +1588,7 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="4">
         <v>0</v>
       </c>
       <c r="C4" s="1">
@@ -1597,7 +1606,7 @@
       <c r="G4" s="1">
         <v>1</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="5" t="s">
         <v>21</v>
       </c>
       <c r="I4" s="1">
@@ -1611,7 +1620,7 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="4">
         <v>3</v>
       </c>
       <c r="C5" s="1">
@@ -1629,7 +1638,7 @@
       <c r="G5" s="1">
         <v>1</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="5" t="s">
         <v>22</v>
       </c>
       <c r="I5" s="1">
@@ -1643,7 +1652,7 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="4">
         <v>0</v>
       </c>
       <c r="C6" s="1">
@@ -1661,7 +1670,7 @@
       <c r="G6" s="1">
         <v>2</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I6" s="1">
@@ -1675,7 +1684,7 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="1">
@@ -1693,7 +1702,7 @@
       <c r="G7" s="1">
         <v>3</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="5" t="s">
         <v>24</v>
       </c>
       <c r="I7" s="1">
@@ -1707,7 +1716,7 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="4">
         <v>0</v>
       </c>
       <c r="C8" s="1">
@@ -1725,7 +1734,7 @@
       <c r="G8" s="1">
         <v>1</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I8" s="1">
@@ -1735,11 +1744,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" ht="17.25" spans="1:10">
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="4">
         <v>2</v>
       </c>
       <c r="C9" s="1">
@@ -1757,7 +1766,7 @@
       <c r="G9" s="1">
         <v>2</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="6" t="s">
         <v>26</v>
       </c>
       <c r="I9" s="1">
@@ -1767,11 +1776,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="17.25" spans="1:10">
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="4">
         <v>3</v>
       </c>
       <c r="C10" s="1">
@@ -1789,7 +1798,7 @@
       <c r="G10" s="1">
         <v>2</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="6" t="s">
         <v>27</v>
       </c>
       <c r="I10" s="1">
@@ -1803,7 +1812,7 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="4">
         <v>0</v>
       </c>
       <c r="C11" s="1">
@@ -1821,7 +1830,7 @@
       <c r="G11" s="1">
         <v>2</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="5" t="s">
         <v>28</v>
       </c>
       <c r="I11" s="1">
@@ -1835,7 +1844,7 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="4">
         <v>2</v>
       </c>
       <c r="C12" s="1">
@@ -1853,7 +1862,7 @@
       <c r="G12" s="1">
         <v>2</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="5" t="s">
         <v>29</v>
       </c>
       <c r="I12" s="1">
@@ -1863,11 +1872,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" ht="27" spans="1:10">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="4">
         <v>3</v>
       </c>
       <c r="C13" s="1">
@@ -1885,7 +1894,7 @@
       <c r="G13" s="1">
         <v>2</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="5" t="s">
         <v>30</v>
       </c>
       <c r="I13" s="1">
@@ -1899,7 +1908,7 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="4">
         <v>2</v>
       </c>
       <c r="C14" s="1">
@@ -1917,7 +1926,7 @@
       <c r="G14" s="1">
         <v>2</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="5" t="s">
         <v>31</v>
       </c>
       <c r="I14" s="1">
@@ -1927,11 +1936,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="33" spans="1:10">
+    <row r="15" ht="27" spans="1:10">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="4">
         <v>0</v>
       </c>
       <c r="C15" s="1">
@@ -1949,7 +1958,7 @@
       <c r="G15" s="1">
         <v>2</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="5" t="s">
         <v>32</v>
       </c>
       <c r="I15" s="1">
@@ -1963,7 +1972,7 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="4">
         <v>2</v>
       </c>
       <c r="C16" s="1">
@@ -1981,7 +1990,7 @@
       <c r="G16" s="1">
         <v>2</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="5" t="s">
         <v>33</v>
       </c>
       <c r="I16" s="1">
@@ -1995,7 +2004,7 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="4">
         <v>3</v>
       </c>
       <c r="C17" s="1">
@@ -2013,7 +2022,7 @@
       <c r="G17" s="1">
         <v>2</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="5" t="s">
         <v>34</v>
       </c>
       <c r="I17" s="1">
@@ -2027,17 +2036,17 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="1">
-        <v>3</v>
+      <c r="B18" s="4">
+        <v>0</v>
       </c>
       <c r="C18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -2045,7 +2054,7 @@
       <c r="G18" s="1">
         <v>2</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="5" t="s">
         <v>35</v>
       </c>
       <c r="I18" s="1">
@@ -2055,11 +2064,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="33" spans="1:10">
+    <row r="19" spans="1:10">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="4">
         <v>2</v>
       </c>
       <c r="C19" s="1">
@@ -2077,7 +2086,7 @@
       <c r="G19" s="1">
         <v>2</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I19" s="1">
@@ -2091,8 +2100,8 @@
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="1">
-        <v>1</v>
+      <c r="B20" s="4">
+        <v>2</v>
       </c>
       <c r="C20" s="1">
         <v>0</v>
@@ -2101,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -2109,7 +2118,7 @@
       <c r="G20" s="1">
         <v>2</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="5" t="s">
         <v>37</v>
       </c>
       <c r="I20" s="1">
@@ -2121,7 +2130,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>9919</v>
       </c>
       <c r="B21" s="1">
         <v>1</v>
@@ -2153,10 +2162,10 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>9920</v>
       </c>
       <c r="B22" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22" s="1">
         <v>0</v>
@@ -2185,28 +2194,28 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1">
-        <v>21</v>
+        <v>9921</v>
       </c>
       <c r="B23" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C23" s="1">
         <v>0</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>2</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="E23" s="1">
-        <v>3</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0</v>
-      </c>
-      <c r="G23" s="1">
-        <v>2</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="I23" s="1">
         <v>6</v>
@@ -2215,53 +2224,85 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="6"/>
-      <c r="D26" s="4"/>
+    <row r="24" spans="1:10">
+      <c r="A24" s="1">
+        <v>9922</v>
+      </c>
+      <c r="B24" s="1">
+        <v>4</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="1">
+        <v>3</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>2</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I24" s="1">
+        <v>6</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="6"/>
-      <c r="D27" s="4"/>
+      <c r="B27" s="7"/>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="6"/>
-      <c r="D28" s="4"/>
+      <c r="B28" s="7"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="2:4">
-      <c r="B29" s="6"/>
-      <c r="D29" s="4"/>
+      <c r="B29" s="7"/>
+      <c r="D29" s="8"/>
     </row>
     <row r="30" spans="2:4">
-      <c r="B30" s="6"/>
-      <c r="D30" s="4"/>
+      <c r="B30" s="7"/>
+      <c r="D30" s="8"/>
     </row>
     <row r="31" spans="2:4">
-      <c r="B31" s="6"/>
-      <c r="D31" s="4"/>
+      <c r="B31" s="7"/>
+      <c r="D31" s="8"/>
     </row>
     <row r="32" spans="2:4">
-      <c r="B32" s="6"/>
-      <c r="D32" s="4"/>
+      <c r="B32" s="7"/>
+      <c r="D32" s="8"/>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="6"/>
-      <c r="D33" s="4"/>
+      <c r="B33" s="7"/>
+      <c r="D33" s="8"/>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="6"/>
-      <c r="D34" s="4"/>
+      <c r="B34" s="7"/>
+      <c r="D34" s="8"/>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="6"/>
-      <c r="D35" s="4"/>
+      <c r="B35" s="7"/>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="6"/>
-      <c r="D36" s="4"/>
+      <c r="B36" s="7"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" spans="2:4">
-      <c r="B37" s="6"/>
-      <c r="D37" s="4"/>
+      <c r="B37" s="7"/>
+      <c r="D37" s="8"/>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="7"/>
+      <c r="D38" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/common/Dialog.xlsx
+++ b/common/Dialog.xlsx
@@ -422,10 +422,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -453,6 +453,103 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <i/>
@@ -463,15 +560,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -486,114 +593,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -640,43 +640,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,13 +784,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,115 +814,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -857,21 +857,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -888,17 +873,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -906,26 +880,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -953,6 +918,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -961,10 +961,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -973,133 +973,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1470,7 +1470,7 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2037,16 +2037,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
